--- a/tut05/output/0501EE06.xlsx
+++ b/tut05/output/0501EE06.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4293,6 +4293,1926 @@
         </is>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>CH101</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Chemistry - I</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>CH110</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Chemistry Laboratory</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>EE101</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Electrical Sciences</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>English : Language Through Literature</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>MA101</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Mathematics - I</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ME110</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Workshop - I</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ME111</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Engineering Drawing</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2-0-3</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>PH101</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Physics - I</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>CH102</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Chemistry - II</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Introduction to Computing</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>CS110</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Computing Laboratory</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>EE102</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Basic Electronics Laboratory</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0-0-4</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>MA102</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Mathematics - II</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ME101</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Engineering Mechanics</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>PH102</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Physics - II</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>PH110</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Physics Laboratory</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>CS201</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Object Oriented Programming and Data Structures</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>3-0-3</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>EE200</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices and Circuits</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>EE201</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Digital Circuits and Microprocessors</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>EE202</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Digital Circuits Laboratory</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>EE220</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Signal, System and Networks</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>HS221</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Fundamentals of Linguistics Science</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>HS ELECTIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>MA201</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Mathematics - III</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>EE203</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Analog Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>EE204</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Analog Circuits Laboratory</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>EE230</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Principles of Communication</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>EE280</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Electrical Machines</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>EE281</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Electrical Machines Laboratory</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>HS222</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Language, Human Mind and Indian Society</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>HS Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>MA225</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Probability Theory and Random Processes</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>MA251</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Optimization Techniques</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Elective-Sc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>EE310</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>EE311</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>VLSI laboratory</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>EE320</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>EE331</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Communication Laboratory</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>EE350</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Control Systems</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>EE370</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Electronic Instrumentation</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>EE371</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Instrumentation and Control Lab</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>EE380</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Electrical Power Systems</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>EE304</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Design Laboratory</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0-0-4</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>EE321</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing Laboratory</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>EE322</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Mathematical Methods in Electrical Engineering</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>EE340</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Electromagnetic Theory</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>EE351</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Advanced Control Systems</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>EE360</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Embedded Systems</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>EE361</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Embedded Systems Laboratory</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>HS331</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Sociology of Development</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>HSS Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>EE400</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Summer Training</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>0-0-0</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>EE430</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Fiber Optic Transmission Systems and Networks</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Departmental Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>EE480</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Electrical Power Systems Operation and Control</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>EE481</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Power Electronics and Drives</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>EE482</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Advanced Electrical Engineering Laboratory</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>EE490</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Image Processing</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Departmental Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>EE498</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Project - I</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0-0-8</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>PH401</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Introduction to Nanomaterials</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Open Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>EE483</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Distributed Energy Resources</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Departmental Elective - III</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>EE499</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Project - II</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0-0-14</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>EE508</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Intelligent Visual Surveillance Systems</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Departmental Elective - IV</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>HS441</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Industrial and Organizational Psychology</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>HS Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>PH403</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Photovoltaics &amp; Fuel Cell Technology</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
